--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902039</v>
+        <v>111902028</v>
       </c>
       <c r="B2" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524868.0170565489</v>
+        <v>524954.0254130038</v>
       </c>
       <c r="R2" t="n">
-        <v>6867460.329015278</v>
+        <v>6867304.187839299</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902033</v>
+        <v>111902038</v>
       </c>
       <c r="B4" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,25 +940,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>525027.0938798942</v>
+        <v>524892.725176702</v>
       </c>
       <c r="R4" t="n">
-        <v>6867370.16309081</v>
+        <v>6867498.641564975</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902026</v>
+        <v>111902030</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,30 +1064,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>524951.0483835863</v>
+        <v>524971.3961406752</v>
       </c>
       <c r="R5" t="n">
-        <v>6867324.410012136</v>
+        <v>6867378.699329315</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902034</v>
+        <v>111902036</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,30 +1188,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>525038.6070930503</v>
+        <v>525015.987664115</v>
       </c>
       <c r="R6" t="n">
-        <v>6867407.439287313</v>
+        <v>6867405.860822954</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902030</v>
+        <v>111902029</v>
       </c>
       <c r="B7" t="n">
         <v>88032</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524971.3961406752</v>
+        <v>524971.6686743505</v>
       </c>
       <c r="R7" t="n">
-        <v>6867378.699329315</v>
+        <v>6867341.509407703</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902040</v>
+        <v>111902032</v>
       </c>
       <c r="B8" t="n">
-        <v>90300</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1440,21 +1440,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4745</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524890.9316995766</v>
+        <v>524989.2701192262</v>
       </c>
       <c r="R8" t="n">
-        <v>6866840.436305572</v>
+        <v>6867384.479730026</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902028</v>
+        <v>111902035</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>524954.0254130038</v>
+        <v>525047.2558985724</v>
       </c>
       <c r="R9" t="n">
-        <v>6867304.187839299</v>
+        <v>6867385.376238698</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902029</v>
+        <v>111902031</v>
       </c>
       <c r="B10" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1684,30 +1684,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>524971.6686743505</v>
+        <v>524990.2026765908</v>
       </c>
       <c r="R10" t="n">
-        <v>6867341.509407703</v>
+        <v>6867385.898910107</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902036</v>
+        <v>111902034</v>
       </c>
       <c r="B11" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1808,30 +1808,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>525015.987664115</v>
+        <v>525038.6070930503</v>
       </c>
       <c r="R11" t="n">
-        <v>6867405.860822954</v>
+        <v>6867407.439287313</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902031</v>
+        <v>111902037</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90654</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524990.2026765908</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R12" t="n">
-        <v>6867385.898910107</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902032</v>
+        <v>111902040</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2060,21 +2060,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2095,13 +2095,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524989.2701192262</v>
+        <v>524890.9316995766</v>
       </c>
       <c r="R13" t="n">
-        <v>6867384.479730026</v>
+        <v>6866840.436305572</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902035</v>
+        <v>111902033</v>
       </c>
       <c r="B14" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2184,26 +2184,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>525047.2558985724</v>
+        <v>525027.0938798942</v>
       </c>
       <c r="R14" t="n">
-        <v>6867385.376238698</v>
+        <v>6867370.16309081</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902038</v>
+        <v>111902039</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2304,30 +2304,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524892.725176702</v>
+        <v>524868.0170565489</v>
       </c>
       <c r="R15" t="n">
-        <v>6867498.641564975</v>
+        <v>6867460.329015278</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902037</v>
+        <v>111902026</v>
       </c>
       <c r="B16" t="n">
-        <v>90654</v>
+        <v>90682</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2428,30 +2428,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>149</v>
+        <v>2059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>524868.6293626219</v>
+        <v>524951.0483835863</v>
       </c>
       <c r="R16" t="n">
-        <v>6867441.031870116</v>
+        <v>6867324.410012136</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902028</v>
+        <v>111902029</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524954.0254130038</v>
+        <v>524971.6686743505</v>
       </c>
       <c r="R2" t="n">
-        <v>6867304.187839299</v>
+        <v>6867341.509407703</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902027</v>
+        <v>111902028</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,30 +816,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524936.9216418237</v>
+        <v>524954.0254130038</v>
       </c>
       <c r="R3" t="n">
-        <v>6867321.952660743</v>
+        <v>6867304.187839299</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902038</v>
+        <v>111902039</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,30 +940,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>524892.725176702</v>
+        <v>524868.0170565489</v>
       </c>
       <c r="R4" t="n">
-        <v>6867498.641564975</v>
+        <v>6867460.329015278</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902030</v>
+        <v>111902031</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,30 +1064,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>524971.3961406752</v>
+        <v>524990.2026765908</v>
       </c>
       <c r="R5" t="n">
-        <v>6867378.699329315</v>
+        <v>6867385.898910107</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902036</v>
+        <v>111902034</v>
       </c>
       <c r="B6" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,30 +1188,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>525015.987664115</v>
+        <v>525038.6070930503</v>
       </c>
       <c r="R6" t="n">
-        <v>6867405.860822954</v>
+        <v>6867407.439287313</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902029</v>
+        <v>111902027</v>
       </c>
       <c r="B7" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1312,30 +1312,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524971.6686743505</v>
+        <v>524936.9216418237</v>
       </c>
       <c r="R7" t="n">
-        <v>6867341.509407703</v>
+        <v>6867321.952660743</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902032</v>
+        <v>111902033</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1440,21 +1440,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524989.2701192262</v>
+        <v>525027.0938798942</v>
       </c>
       <c r="R8" t="n">
-        <v>6867384.479730026</v>
+        <v>6867370.16309081</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902035</v>
+        <v>111902037</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>90654</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>149</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>525047.2558985724</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R9" t="n">
-        <v>6867385.376238698</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902031</v>
+        <v>111902032</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1688,26 +1688,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>524990.2026765908</v>
+        <v>524989.2701192262</v>
       </c>
       <c r="R10" t="n">
-        <v>6867385.898910107</v>
+        <v>6867384.479730026</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902034</v>
+        <v>111902026</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,26 +1812,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>525038.6070930503</v>
+        <v>524951.0483835863</v>
       </c>
       <c r="R11" t="n">
-        <v>6867407.439287313</v>
+        <v>6867324.410012136</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902037</v>
+        <v>111902036</v>
       </c>
       <c r="B12" t="n">
-        <v>90654</v>
+        <v>88032</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1936,21 +1936,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524868.6293626219</v>
+        <v>525015.987664115</v>
       </c>
       <c r="R12" t="n">
-        <v>6867441.031870116</v>
+        <v>6867405.860822954</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902040</v>
+        <v>111902038</v>
       </c>
       <c r="B13" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2056,25 +2056,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524890.9316995766</v>
+        <v>524892.725176702</v>
       </c>
       <c r="R13" t="n">
-        <v>6866840.436305572</v>
+        <v>6867498.641564975</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902033</v>
+        <v>111902030</v>
       </c>
       <c r="B14" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2180,30 +2180,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>525027.0938798942</v>
+        <v>524971.3961406752</v>
       </c>
       <c r="R14" t="n">
-        <v>6867370.16309081</v>
+        <v>6867378.699329315</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902039</v>
+        <v>111902040</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2308,26 +2308,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524868.0170565489</v>
+        <v>524890.9316995766</v>
       </c>
       <c r="R15" t="n">
-        <v>6867460.329015278</v>
+        <v>6866840.436305572</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902026</v>
+        <v>111902035</v>
       </c>
       <c r="B16" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2432,26 +2432,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>524951.0483835863</v>
+        <v>525047.2558985724</v>
       </c>
       <c r="R16" t="n">
-        <v>6867324.410012136</v>
+        <v>6867385.376238698</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902029</v>
+        <v>111902028</v>
       </c>
       <c r="B2" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524971.6686743505</v>
+        <v>524954.0254130038</v>
       </c>
       <c r="R2" t="n">
-        <v>6867341.509407703</v>
+        <v>6867304.187839299</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902028</v>
+        <v>111902038</v>
       </c>
       <c r="B3" t="n">
         <v>90666</v>
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524954.0254130038</v>
+        <v>524892.725176702</v>
       </c>
       <c r="R3" t="n">
-        <v>6867304.187839299</v>
+        <v>6867498.641564975</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902039</v>
+        <v>111902035</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,26 +944,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>524868.0170565489</v>
+        <v>525047.2558985724</v>
       </c>
       <c r="R4" t="n">
-        <v>6867460.329015278</v>
+        <v>6867385.376238698</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902031</v>
+        <v>111902036</v>
       </c>
       <c r="B5" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,25 +1064,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>524990.2026765908</v>
+        <v>525015.987664115</v>
       </c>
       <c r="R5" t="n">
-        <v>6867385.898910107</v>
+        <v>6867405.860822954</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902034</v>
+        <v>111902037</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90654</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,30 +1188,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>525038.6070930503</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R6" t="n">
-        <v>6867407.439287313</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902027</v>
+        <v>111902033</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,26 +1316,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524936.9216418237</v>
+        <v>525027.0938798942</v>
       </c>
       <c r="R7" t="n">
-        <v>6867321.952660743</v>
+        <v>6867370.16309081</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902033</v>
+        <v>111902031</v>
       </c>
       <c r="B8" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1440,26 +1440,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>525027.0938798942</v>
+        <v>524990.2026765908</v>
       </c>
       <c r="R8" t="n">
-        <v>6867370.16309081</v>
+        <v>6867385.898910107</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902037</v>
+        <v>111902029</v>
       </c>
       <c r="B9" t="n">
-        <v>90654</v>
+        <v>88032</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1564,26 +1564,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>524868.6293626219</v>
+        <v>524971.6686743505</v>
       </c>
       <c r="R9" t="n">
-        <v>6867441.031870116</v>
+        <v>6867341.509407703</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902032</v>
+        <v>111902027</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1688,26 +1688,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>524989.2701192262</v>
+        <v>524936.9216418237</v>
       </c>
       <c r="R10" t="n">
-        <v>6867384.479730026</v>
+        <v>6867321.952660743</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902026</v>
+        <v>111902030</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1808,30 +1808,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524951.0483835863</v>
+        <v>524971.3961406752</v>
       </c>
       <c r="R11" t="n">
-        <v>6867324.410012136</v>
+        <v>6867378.699329315</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902036</v>
+        <v>111902032</v>
       </c>
       <c r="B12" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1932,30 +1932,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>525015.987664115</v>
+        <v>524989.2701192262</v>
       </c>
       <c r="R12" t="n">
-        <v>6867405.860822954</v>
+        <v>6867384.479730026</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902038</v>
+        <v>111902026</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2056,25 +2056,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524892.725176702</v>
+        <v>524951.0483835863</v>
       </c>
       <c r="R13" t="n">
-        <v>6867498.641564975</v>
+        <v>6867324.410012136</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902030</v>
+        <v>111902040</v>
       </c>
       <c r="B14" t="n">
-        <v>88032</v>
+        <v>90300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2180,30 +2180,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>524971.3961406752</v>
+        <v>524890.9316995766</v>
       </c>
       <c r="R14" t="n">
-        <v>6867378.699329315</v>
+        <v>6866840.436305572</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902040</v>
+        <v>111902039</v>
       </c>
       <c r="B15" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2308,26 +2308,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524890.9316995766</v>
+        <v>524868.0170565489</v>
       </c>
       <c r="R15" t="n">
-        <v>6866840.436305572</v>
+        <v>6867460.329015278</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902035</v>
+        <v>111902034</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2432,26 +2432,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525047.2558985724</v>
+        <v>525038.6070930503</v>
       </c>
       <c r="R16" t="n">
-        <v>6867385.376238698</v>
+        <v>6867407.439287313</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902028</v>
+        <v>111902040</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>90300</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524954.0254130038</v>
+        <v>524890.9316995766</v>
       </c>
       <c r="R2" t="n">
-        <v>6867304.187839299</v>
+        <v>6866840.436305572</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902038</v>
+        <v>111902037</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90654</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,30 +816,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>149</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524892.725176702</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R3" t="n">
-        <v>6867498.641564975</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902035</v>
+        <v>111902030</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,30 +940,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>525047.2558985724</v>
+        <v>524971.3961406752</v>
       </c>
       <c r="R4" t="n">
-        <v>6867385.376238698</v>
+        <v>6867378.699329315</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902036</v>
+        <v>111902034</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,30 +1064,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>525015.987664115</v>
+        <v>525038.6070930503</v>
       </c>
       <c r="R5" t="n">
-        <v>6867405.860822954</v>
+        <v>6867407.439287313</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902037</v>
+        <v>111902033</v>
       </c>
       <c r="B6" t="n">
-        <v>90654</v>
+        <v>90300</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,30 +1188,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>149</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>524868.6293626219</v>
+        <v>525027.0938798942</v>
       </c>
       <c r="R6" t="n">
-        <v>6867441.031870116</v>
+        <v>6867370.16309081</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902033</v>
+        <v>111902039</v>
       </c>
       <c r="B7" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,26 +1316,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>525027.0938798942</v>
+        <v>524868.0170565489</v>
       </c>
       <c r="R7" t="n">
-        <v>6867370.16309081</v>
+        <v>6867460.329015278</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902031</v>
+        <v>111902038</v>
       </c>
       <c r="B8" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1436,30 +1436,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524990.2026765908</v>
+        <v>524892.725176702</v>
       </c>
       <c r="R8" t="n">
-        <v>6867385.898910107</v>
+        <v>6867498.641564975</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902027</v>
+        <v>111902036</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1684,30 +1684,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>524936.9216418237</v>
+        <v>525015.987664115</v>
       </c>
       <c r="R10" t="n">
-        <v>6867321.952660743</v>
+        <v>6867405.860822954</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902030</v>
+        <v>111902032</v>
       </c>
       <c r="B11" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1808,30 +1808,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524971.3961406752</v>
+        <v>524989.2701192262</v>
       </c>
       <c r="R11" t="n">
-        <v>6867378.699329315</v>
+        <v>6867384.479730026</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902032</v>
+        <v>111902027</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1936,26 +1936,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524989.2701192262</v>
+        <v>524936.9216418237</v>
       </c>
       <c r="R12" t="n">
-        <v>6867384.479730026</v>
+        <v>6867321.952660743</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902026</v>
+        <v>111902035</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2060,26 +2060,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2095,13 +2095,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524951.0483835863</v>
+        <v>525047.2558985724</v>
       </c>
       <c r="R13" t="n">
-        <v>6867324.410012136</v>
+        <v>6867385.376238698</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902040</v>
+        <v>111902031</v>
       </c>
       <c r="B14" t="n">
-        <v>90300</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2184,26 +2184,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>524890.9316995766</v>
+        <v>524990.2026765908</v>
       </c>
       <c r="R14" t="n">
-        <v>6866840.436305572</v>
+        <v>6867385.898910107</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902039</v>
+        <v>111902026</v>
       </c>
       <c r="B15" t="n">
         <v>90682</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524868.0170565489</v>
+        <v>524951.0483835863</v>
       </c>
       <c r="R15" t="n">
-        <v>6867460.329015278</v>
+        <v>6867324.410012136</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902034</v>
+        <v>111902028</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2428,30 +2428,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525038.6070930503</v>
+        <v>524954.0254130038</v>
       </c>
       <c r="R16" t="n">
-        <v>6867407.439287313</v>
+        <v>6867304.187839299</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902037</v>
+        <v>111902031</v>
       </c>
       <c r="B3" t="n">
-        <v>90654</v>
+        <v>90660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,25 +816,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524868.6293626219</v>
+        <v>524990.2026765908</v>
       </c>
       <c r="R3" t="n">
-        <v>6867441.031870116</v>
+        <v>6867385.898910107</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902030</v>
+        <v>111902033</v>
       </c>
       <c r="B4" t="n">
-        <v>88032</v>
+        <v>90300</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,30 +940,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>524971.3961406752</v>
+        <v>525027.0938798942</v>
       </c>
       <c r="R4" t="n">
-        <v>6867378.699329315</v>
+        <v>6867370.16309081</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902034</v>
+        <v>111902035</v>
       </c>
       <c r="B5" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1068,26 +1068,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>525038.6070930503</v>
+        <v>525047.2558985724</v>
       </c>
       <c r="R5" t="n">
-        <v>6867407.439287313</v>
+        <v>6867385.376238698</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902033</v>
+        <v>111902029</v>
       </c>
       <c r="B6" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,30 +1188,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>525027.0938798942</v>
+        <v>524971.6686743505</v>
       </c>
       <c r="R6" t="n">
-        <v>6867370.16309081</v>
+        <v>6867341.509407703</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902039</v>
+        <v>111902036</v>
       </c>
       <c r="B7" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1312,30 +1312,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524868.0170565489</v>
+        <v>525015.987664115</v>
       </c>
       <c r="R7" t="n">
-        <v>6867460.329015278</v>
+        <v>6867405.860822954</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902038</v>
+        <v>111902028</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524892.725176702</v>
+        <v>524954.0254130038</v>
       </c>
       <c r="R8" t="n">
-        <v>6867498.641564975</v>
+        <v>6867304.187839299</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902029</v>
+        <v>111902038</v>
       </c>
       <c r="B9" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>524971.6686743505</v>
+        <v>524892.725176702</v>
       </c>
       <c r="R9" t="n">
-        <v>6867341.509407703</v>
+        <v>6867498.641564975</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902036</v>
+        <v>111902030</v>
       </c>
       <c r="B10" t="n">
         <v>88032</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>525015.987664115</v>
+        <v>524971.3961406752</v>
       </c>
       <c r="R10" t="n">
-        <v>6867405.860822954</v>
+        <v>6867378.699329315</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902032</v>
+        <v>111902039</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,26 +1812,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524989.2701192262</v>
+        <v>524868.0170565489</v>
       </c>
       <c r="R11" t="n">
-        <v>6867384.479730026</v>
+        <v>6867460.329015278</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902027</v>
+        <v>111902037</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90654</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1932,30 +1932,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524936.9216418237</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R12" t="n">
-        <v>6867321.952660743</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902035</v>
+        <v>111902032</v>
       </c>
       <c r="B13" t="n">
         <v>90658</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2095,13 +2095,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>525047.2558985724</v>
+        <v>524989.2701192262</v>
       </c>
       <c r="R13" t="n">
-        <v>6867385.376238698</v>
+        <v>6867384.479730026</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902031</v>
+        <v>111902034</v>
       </c>
       <c r="B14" t="n">
         <v>90660</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>524990.2026765908</v>
+        <v>525038.6070930503</v>
       </c>
       <c r="R14" t="n">
-        <v>6867385.898910107</v>
+        <v>6867407.439287313</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902026</v>
+        <v>111902027</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2308,26 +2308,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524951.0483835863</v>
+        <v>524936.9216418237</v>
       </c>
       <c r="R15" t="n">
-        <v>6867324.410012136</v>
+        <v>6867321.952660743</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902028</v>
+        <v>111902026</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2428,25 +2428,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>524954.0254130038</v>
+        <v>524951.0483835863</v>
       </c>
       <c r="R16" t="n">
-        <v>6867304.187839299</v>
+        <v>6867324.410012136</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902040</v>
+        <v>111902026</v>
       </c>
       <c r="B2" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524890.9316995766</v>
+        <v>524951.0483835863</v>
       </c>
       <c r="R2" t="n">
-        <v>6866840.436305572</v>
+        <v>6867324.410012136</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902031</v>
+        <v>111902039</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,26 +820,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524990.2026765908</v>
+        <v>524868.0170565489</v>
       </c>
       <c r="R3" t="n">
-        <v>6867385.898910107</v>
+        <v>6867460.329015278</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902033</v>
+        <v>111902038</v>
       </c>
       <c r="B4" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,25 +940,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>525027.0938798942</v>
+        <v>524892.725176702</v>
       </c>
       <c r="R4" t="n">
-        <v>6867370.16309081</v>
+        <v>6867498.641564975</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902035</v>
+        <v>111902028</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,30 +1064,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>525047.2558985724</v>
+        <v>524954.0254130038</v>
       </c>
       <c r="R5" t="n">
-        <v>6867385.376238698</v>
+        <v>6867304.187839299</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902029</v>
+        <v>111902030</v>
       </c>
       <c r="B6" t="n">
         <v>88032</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>524971.6686743505</v>
+        <v>524971.3961406752</v>
       </c>
       <c r="R6" t="n">
-        <v>6867341.509407703</v>
+        <v>6867378.699329315</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902036</v>
+        <v>111902032</v>
       </c>
       <c r="B7" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1312,30 +1312,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>525015.987664115</v>
+        <v>524989.2701192262</v>
       </c>
       <c r="R7" t="n">
-        <v>6867405.860822954</v>
+        <v>6867384.479730026</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902028</v>
+        <v>111902036</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1436,30 +1436,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524954.0254130038</v>
+        <v>525015.987664115</v>
       </c>
       <c r="R8" t="n">
-        <v>6867304.187839299</v>
+        <v>6867405.860822954</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902038</v>
+        <v>111902031</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>524892.725176702</v>
+        <v>524990.2026765908</v>
       </c>
       <c r="R9" t="n">
-        <v>6867498.641564975</v>
+        <v>6867385.898910107</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902030</v>
+        <v>111902035</v>
       </c>
       <c r="B10" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1684,30 +1684,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>524971.3961406752</v>
+        <v>525047.2558985724</v>
       </c>
       <c r="R10" t="n">
-        <v>6867378.699329315</v>
+        <v>6867385.376238698</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902039</v>
+        <v>111902040</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,26 +1812,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524868.0170565489</v>
+        <v>524890.9316995766</v>
       </c>
       <c r="R11" t="n">
-        <v>6867460.329015278</v>
+        <v>6866840.436305572</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902037</v>
+        <v>111902029</v>
       </c>
       <c r="B12" t="n">
-        <v>90654</v>
+        <v>88032</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1936,26 +1936,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>6276</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524868.6293626219</v>
+        <v>524971.6686743505</v>
       </c>
       <c r="R12" t="n">
-        <v>6867441.031870116</v>
+        <v>6867341.509407703</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902032</v>
+        <v>111902037</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90654</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2056,30 +2056,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>149</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524989.2701192262</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R13" t="n">
-        <v>6867384.479730026</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902034</v>
+        <v>111902027</v>
       </c>
       <c r="B14" t="n">
         <v>90660</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>525038.6070930503</v>
+        <v>524936.9216418237</v>
       </c>
       <c r="R14" t="n">
-        <v>6867407.439287313</v>
+        <v>6867321.952660743</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902027</v>
+        <v>111902033</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2308,26 +2308,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524936.9216418237</v>
+        <v>525027.0938798942</v>
       </c>
       <c r="R15" t="n">
-        <v>6867321.952660743</v>
+        <v>6867370.16309081</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902026</v>
+        <v>111902034</v>
       </c>
       <c r="B16" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2432,26 +2432,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>524951.0483835863</v>
+        <v>525038.6070930503</v>
       </c>
       <c r="R16" t="n">
-        <v>6867324.410012136</v>
+        <v>6867407.439287313</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902029</v>
+        <v>111902037</v>
       </c>
       <c r="B12" t="n">
-        <v>88032</v>
+        <v>90654</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1936,26 +1936,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6276</v>
+        <v>149</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524971.6686743505</v>
+        <v>524868.6293626219</v>
       </c>
       <c r="R12" t="n">
-        <v>6867341.509407703</v>
+        <v>6867441.031870116</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902037</v>
+        <v>111902027</v>
       </c>
       <c r="B13" t="n">
-        <v>90654</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2056,30 +2056,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2095,13 +2095,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524868.6293626219</v>
+        <v>524936.9216418237</v>
       </c>
       <c r="R13" t="n">
-        <v>6867441.031870116</v>
+        <v>6867321.952660743</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902027</v>
+        <v>111902029</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2180,30 +2180,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>524936.9216418237</v>
+        <v>524971.6686743505</v>
       </c>
       <c r="R14" t="n">
-        <v>6867321.952660743</v>
+        <v>6867341.509407703</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902026</v>
+        <v>111902028</v>
       </c>
       <c r="B2" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524951.0483835863</v>
+        <v>524954</v>
       </c>
       <c r="R2" t="n">
-        <v>6867324.410012136</v>
+        <v>6867304</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -764,19 +764,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -804,10 +794,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902039</v>
+        <v>111902040</v>
       </c>
       <c r="B3" t="n">
-        <v>90682</v>
+        <v>90300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,26 +810,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -855,13 +845,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524868.0170565489</v>
+        <v>524891</v>
       </c>
       <c r="R3" t="n">
-        <v>6867460.329015278</v>
+        <v>6866840</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -888,19 +878,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902038</v>
+        <v>111902027</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,30 +920,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -979,13 +959,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>524892.725176702</v>
+        <v>524937</v>
       </c>
       <c r="R4" t="n">
-        <v>6867498.641564975</v>
+        <v>6867322</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1012,19 +992,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1052,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902028</v>
+        <v>111902039</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,30 +1034,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1103,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>524954.0254130038</v>
+        <v>524868</v>
       </c>
       <c r="R5" t="n">
-        <v>6867304.187839299</v>
+        <v>6867460</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1136,19 +1106,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1176,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902030</v>
+        <v>111902036</v>
       </c>
       <c r="B6" t="n">
         <v>88032</v>
@@ -1211,7 +1171,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1227,13 +1187,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>524971.3961406752</v>
+        <v>525016</v>
       </c>
       <c r="R6" t="n">
-        <v>6867378.699329315</v>
+        <v>6867406</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1260,19 +1220,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1300,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902032</v>
+        <v>111902031</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,26 +1266,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1351,13 +1301,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524989.2701192262</v>
+        <v>524990</v>
       </c>
       <c r="R7" t="n">
-        <v>6867384.479730026</v>
+        <v>6867386</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1384,19 +1334,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1424,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902036</v>
+        <v>111902038</v>
       </c>
       <c r="B8" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1436,30 +1376,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1475,13 +1415,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>525015.987664115</v>
+        <v>524893</v>
       </c>
       <c r="R8" t="n">
-        <v>6867405.860822954</v>
+        <v>6867499</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1508,19 +1448,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1548,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902031</v>
+        <v>111902033</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1564,26 +1494,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,13 +1529,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>524990.2026765908</v>
+        <v>525027</v>
       </c>
       <c r="R9" t="n">
-        <v>6867385.898910107</v>
+        <v>6867370</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1632,19 +1562,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1672,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902035</v>
+        <v>111902030</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1684,30 +1604,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1723,13 +1643,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>525047.2558985724</v>
+        <v>524971</v>
       </c>
       <c r="R10" t="n">
-        <v>6867385.376238698</v>
+        <v>6867379</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1756,19 +1676,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1796,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902040</v>
+        <v>111902026</v>
       </c>
       <c r="B11" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,21 +1722,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1847,10 +1757,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524890.9316995766</v>
+        <v>524951</v>
       </c>
       <c r="R11" t="n">
-        <v>6866840.436305572</v>
+        <v>6867324</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1880,19 +1790,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1971,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524868.6293626219</v>
+        <v>524869</v>
       </c>
       <c r="R12" t="n">
-        <v>6867441.031870116</v>
+        <v>6867441</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2004,19 +1904,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2044,7 +1934,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902027</v>
+        <v>111902034</v>
       </c>
       <c r="B13" t="n">
         <v>90660</v>
@@ -2079,7 +1969,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2095,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524936.9216418237</v>
+        <v>525039</v>
       </c>
       <c r="R13" t="n">
-        <v>6867321.952660743</v>
+        <v>6867407</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2128,19 +2018,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2168,10 +2048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902029</v>
+        <v>111902035</v>
       </c>
       <c r="B14" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2180,30 +2060,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2219,13 +2099,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>524971.6686743505</v>
+        <v>525047</v>
       </c>
       <c r="R14" t="n">
-        <v>6867341.509407703</v>
+        <v>6867385</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2252,19 +2132,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2292,10 +2162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902033</v>
+        <v>111902029</v>
       </c>
       <c r="B15" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2304,30 +2174,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2343,13 +2213,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>525027.0938798942</v>
+        <v>524972</v>
       </c>
       <c r="R15" t="n">
-        <v>6867370.16309081</v>
+        <v>6867342</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2376,19 +2246,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2416,10 +2276,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902034</v>
+        <v>111902032</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2432,26 +2292,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2467,13 +2327,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>525038.6070930503</v>
+        <v>524989</v>
       </c>
       <c r="R16" t="n">
-        <v>6867407.439287313</v>
+        <v>6867384</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2500,19 +2360,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902028</v>
+        <v>111902034</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>90794</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>524954</v>
+        <v>525039</v>
       </c>
       <c r="R2" t="n">
-        <v>6867304</v>
+        <v>6867407</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902040</v>
+        <v>111902031</v>
       </c>
       <c r="B3" t="n">
-        <v>90300</v>
+        <v>90794</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,26 +810,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524891</v>
+        <v>524990</v>
       </c>
       <c r="R3" t="n">
-        <v>6866840</v>
+        <v>6867386</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902027</v>
+        <v>111902029</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>88166</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,30 +920,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>524937</v>
+        <v>524972</v>
       </c>
       <c r="R4" t="n">
-        <v>6867322</v>
+        <v>6867342</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902039</v>
+        <v>111902040</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>90434</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,26 +1038,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>524868</v>
+        <v>524891</v>
       </c>
       <c r="R5" t="n">
-        <v>6867460</v>
+        <v>6866840</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>111902036</v>
       </c>
       <c r="B6" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902031</v>
+        <v>111902039</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,26 +1266,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524990</v>
+        <v>524868</v>
       </c>
       <c r="R7" t="n">
-        <v>6867386</v>
+        <v>6867460</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902038</v>
+        <v>111902026</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90816</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,25 +1376,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524893</v>
+        <v>524951</v>
       </c>
       <c r="R8" t="n">
-        <v>6867499</v>
+        <v>6867324</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902033</v>
+        <v>111902038</v>
       </c>
       <c r="B9" t="n">
-        <v>90300</v>
+        <v>90800</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,25 +1490,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>525027</v>
+        <v>524893</v>
       </c>
       <c r="R9" t="n">
-        <v>6867370</v>
+        <v>6867499</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902030</v>
+        <v>111902035</v>
       </c>
       <c r="B10" t="n">
-        <v>88032</v>
+        <v>90792</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1604,30 +1604,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>524971</v>
+        <v>525047</v>
       </c>
       <c r="R10" t="n">
-        <v>6867379</v>
+        <v>6867385</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902026</v>
+        <v>111902030</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>88166</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,30 +1718,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524951</v>
+        <v>524971</v>
       </c>
       <c r="R11" t="n">
-        <v>6867324</v>
+        <v>6867379</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902037</v>
+        <v>111902028</v>
       </c>
       <c r="B12" t="n">
-        <v>90654</v>
+        <v>90800</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,30 +1832,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524869</v>
+        <v>524954</v>
       </c>
       <c r="R12" t="n">
-        <v>6867441</v>
+        <v>6867304</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902034</v>
+        <v>111902027</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>525039</v>
+        <v>524937</v>
       </c>
       <c r="R13" t="n">
-        <v>6867407</v>
+        <v>6867322</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902035</v>
+        <v>111902033</v>
       </c>
       <c r="B14" t="n">
-        <v>90658</v>
+        <v>90434</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2064,26 +2064,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>525047</v>
+        <v>525027</v>
       </c>
       <c r="R14" t="n">
-        <v>6867385</v>
+        <v>6867370</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111902029</v>
+        <v>111902032</v>
       </c>
       <c r="B15" t="n">
-        <v>88032</v>
+        <v>90792</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2174,30 +2174,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>524972</v>
+        <v>524989</v>
       </c>
       <c r="R15" t="n">
-        <v>6867342</v>
+        <v>6867384</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902032</v>
+        <v>111902037</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>90788</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2288,30 +2288,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>149</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>524989</v>
+        <v>524869</v>
       </c>
       <c r="R16" t="n">
-        <v>6867384</v>
+        <v>6867441</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>

--- a/artfynd/A 40223-2018.xlsx
+++ b/artfynd/A 40223-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111902034</v>
+        <v>111902031</v>
       </c>
       <c r="B2" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>525039</v>
+        <v>524990</v>
       </c>
       <c r="R2" t="n">
-        <v>6867407</v>
+        <v>6867386</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111902031</v>
+        <v>111902037</v>
       </c>
       <c r="B3" t="n">
-        <v>90794</v>
+        <v>90802</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -806,25 +806,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>149</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>524990</v>
+        <v>524869</v>
       </c>
       <c r="R3" t="n">
-        <v>6867386</v>
+        <v>6867441</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111902029</v>
+        <v>111902040</v>
       </c>
       <c r="B4" t="n">
-        <v>88166</v>
+        <v>90448</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,30 +920,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>524972</v>
+        <v>524891</v>
       </c>
       <c r="R4" t="n">
-        <v>6867342</v>
+        <v>6866840</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111902040</v>
+        <v>111902036</v>
       </c>
       <c r="B5" t="n">
-        <v>90434</v>
+        <v>88180</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,30 +1034,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>524891</v>
+        <v>525016</v>
       </c>
       <c r="R5" t="n">
-        <v>6866840</v>
+        <v>6867406</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111902036</v>
+        <v>111902038</v>
       </c>
       <c r="B6" t="n">
-        <v>88166</v>
+        <v>90814</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,30 +1148,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>525016</v>
+        <v>524893</v>
       </c>
       <c r="R6" t="n">
-        <v>6867406</v>
+        <v>6867499</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111902039</v>
+        <v>111902033</v>
       </c>
       <c r="B7" t="n">
-        <v>90816</v>
+        <v>90448</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,26 +1266,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>4745</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>524868</v>
+        <v>525027</v>
       </c>
       <c r="R7" t="n">
-        <v>6867460</v>
+        <v>6867370</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111902026</v>
+        <v>111902030</v>
       </c>
       <c r="B8" t="n">
-        <v>90816</v>
+        <v>88180</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,30 +1376,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>524951</v>
+        <v>524971</v>
       </c>
       <c r="R8" t="n">
-        <v>6867324</v>
+        <v>6867379</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111902038</v>
+        <v>111902027</v>
       </c>
       <c r="B9" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>524893</v>
+        <v>524937</v>
       </c>
       <c r="R9" t="n">
-        <v>6867499</v>
+        <v>6867322</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111902035</v>
+        <v>111902026</v>
       </c>
       <c r="B10" t="n">
-        <v>90792</v>
+        <v>90830</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,26 +1608,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>525047</v>
+        <v>524951</v>
       </c>
       <c r="R10" t="n">
-        <v>6867385</v>
+        <v>6867324</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111902030</v>
+        <v>111902035</v>
       </c>
       <c r="B11" t="n">
-        <v>88166</v>
+        <v>90806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,30 +1718,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>524971</v>
+        <v>525047</v>
       </c>
       <c r="R11" t="n">
-        <v>6867379</v>
+        <v>6867385</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111902028</v>
+        <v>111902039</v>
       </c>
       <c r="B12" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,30 +1832,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>524954</v>
+        <v>524868</v>
       </c>
       <c r="R12" t="n">
-        <v>6867304</v>
+        <v>6867460</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111902027</v>
+        <v>111902028</v>
       </c>
       <c r="B13" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1946,30 +1946,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>524937</v>
+        <v>524954</v>
       </c>
       <c r="R13" t="n">
-        <v>6867322</v>
+        <v>6867304</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111902033</v>
+        <v>111902029</v>
       </c>
       <c r="B14" t="n">
-        <v>90434</v>
+        <v>88180</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2060,30 +2060,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>525027</v>
+        <v>524972</v>
       </c>
       <c r="R14" t="n">
-        <v>6867370</v>
+        <v>6867342</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>111902032</v>
       </c>
       <c r="B15" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111902037</v>
+        <v>111902034</v>
       </c>
       <c r="B16" t="n">
-        <v>90788</v>
+        <v>90808</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2288,30 +2288,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>149</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>524869</v>
+        <v>525039</v>
       </c>
       <c r="R16" t="n">
-        <v>6867441</v>
+        <v>6867407</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
